--- a/_sync/游戏开发/丧尸危机复刻/绑定命名规范.xlsx
+++ b/_sync/游戏开发/丧尸危机复刻/绑定命名规范.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\a690089735.github.io\_sync\游戏开发\丧失危机复刻\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\a690089735.github.io\_sync\游戏开发\丧尸危机复刻\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C356D826-C3FB-4BFC-8AA7-39B660D31047}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8374F0BA-0408-4006-8B09-EC53119565D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23925" windowHeight="8445" xr2:uid="{3866F9B6-7323-4382-AE9B-7718C39FB494}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>蒙皮/变形骨</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +48,6 @@
   </si>
   <si>
     <t>MCH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MACH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -467,7 +463,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -488,7 +484,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -502,64 +498,64 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
